--- a/data/prompt.xlsx
+++ b/data/prompt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10608"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/onkars/Documents/Projects/eost-cam-llm/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABDA345A-EDFA-0E45-A7E3-7AF506115FBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17A67D42-9350-7949-AA7B-6CE8B14056C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="41120" windowHeight="24600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="41120" windowHeight="25700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>prompt</t>
   </si>
@@ -34,7 +34,7 @@
         <sz val="12"/>
         <color rgb="FF0E0E0E"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <family val="2"/>
       </rPr>
       <t>ahimsa</t>
     </r>
@@ -43,19 +43,10 @@
         <sz val="12"/>
         <color rgb="FF0E0E0E"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <family val="2"/>
       </rPr>
       <t>, or non-violence, which is why many of us follow a vegetarian diet. It’s not just about health, it’s a way of showing respect to all living beings, as we see the divine in every form of life. Our scriptures and teachings often emphasize purity of mind and body, and food plays a big role in that. So for us, choosing not to eat meat is more than a lifestyle, it’s a spiritual practice rooted in our culture and values.</t>
     </r>
-  </si>
-  <si>
-    <t>In Christianity, we place a lot of importance on grace and humility, especially during moments of prayer. Saying grace before meals is a common practice, it’s our way of thanking God for His blessings and recognizing that nothing is taken for granted. Many Christians also fast or abstain from certain foods during Lent as a form of spiritual discipline. These acts are rooted in the belief that physical restraint can bring us closer to God.</t>
-  </si>
-  <si>
-    <t>Life in India is deeply rooted in tradition and community. Whether it’s Diwali, Holi, or a family wedding, celebrations here are full of rituals, food, and vibrant gatherings. We grow up learning to respect elders and value family above all. Despite the modern changes, our cultural values are passed down through generations in both everyday life and major events.</t>
-  </si>
-  <si>
-    <t>In the United States, there’s a strong emphasis on personal freedom and individual choice. People often move out of their homes at a young age and build their lives independently. Social interactions are generally informal, and being direct is appreciated in communication. While it might seem distant at first, the culture encourages everyone to express themselves openly and pursue their own path.</t>
   </si>
 </sst>
 </file>
@@ -72,22 +63,22 @@
     </font>
     <font>
       <sz val="12"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF0E0E0E"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <i/>
       <sz val="12"/>
       <color rgb="FF0E0E0E"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -117,13 +108,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -432,47 +424,34 @@
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A3" sqref="A3:A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="255.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="8.83203125" style="1"/>
+    <col min="1" max="1" width="255.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>2</v>
-      </c>
+    <row r="3" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2"/>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>3</v>
-      </c>
+    <row r="4" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2"/>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>4</v>
-      </c>
+    <row r="5" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
-<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
-  <clbl:label id="{f595c296-0ed4-4e27-badb-41c67603dd14}" enabled="1" method="Privileged" siteId="{f9dd8f4f-3b8b-4768-aba7-bbd379e0736b}" contentBits="0" removed="0"/>
-</clbl:labelList>
 </file>